--- a/Stats_Assessment2.xlsx
+++ b/Stats_Assessment2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\SQL_ASSESSMENT_APPLIED IN  STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C864F3-C7CE-4908-BA4C-44E1E5FE8ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F584E53-6A74-4A42-B8D2-A3CBEF66EFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A5AC3351-75CF-4AF6-A3CC-57BF2311CAC1}"/>
   </bookViews>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>2007 Figures</t>
   </si>
@@ -155,13 +166,67 @@
   </si>
   <si>
     <t>&lt;- Group 3 Varience of Sample</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>2007 Figure</t>
+  </si>
+  <si>
+    <t>2008 Figure</t>
+  </si>
+  <si>
+    <t>2009 Figure</t>
+  </si>
+  <si>
+    <t>Varience</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>To find variance using Data Analysis Toolpak I used Covarieance because it is same as varieance and it is used to find Population Varience.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +287,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -259,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -450,6 +532,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -461,22 +554,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,13 +591,7 @@
     <xf numFmtId="3" fontId="1" fillId="6" borderId="9" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,10 +601,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -848,76 +959,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4FCFEE-ED7B-47E2-B1EC-8EB382B6DBCA}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
     <col min="9" max="9" width="34.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="H1" s="17" t="s">
+      <c r="F1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>39083</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>15000</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>39448</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>17500</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>39814</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>13000</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <f>_xlfn.VAR.P(B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14)</f>
         <v>5713541.666666667</v>
       </c>
@@ -925,239 +1039,372 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+    <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>39114</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>14500</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>39479</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>12000</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>39845</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="12">
         <v>15000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>39142</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>14500</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>39508</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>16000</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>39873</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>14000</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <f>_xlfn.VAR.P(D3:D14)</f>
         <v>7352430.555555556</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
         <v>39173</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>14000</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>39539</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>19000</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>39904</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>16500</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>39203</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>16000</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>39569</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>17000</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>39934</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>20000</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="14">
         <f>_xlfn.VAR.P(F3:F14)</f>
         <v>5326388.888888889</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>39234</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>9500</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>39600</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>10500</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>39965</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>12500</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>39264</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>13500</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>39630</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>11000</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>39995</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>14000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>39295</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>17000</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>39661</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>12500</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>40026</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>18500</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>39326</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>11000</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>39692</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>13000</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>40057</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>14500</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="H11" s="31"/>
+      <c r="I11" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>39356</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>15000</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>39722</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>15500</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>40087</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>13000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="H12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="37">
+        <f>VARP('Que1'!$B$3:$B$14)</f>
+        <v>5713541.666666667</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>39387</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>17500</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>39753</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>15000</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>40118</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>13000</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>39417</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>18000</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>39783</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <v>17500</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>40148</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <v>17000</v>
       </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H15" s="31"/>
+      <c r="I15" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="37">
+        <f>VARP('Que1'!$D$3:$D$14)</f>
+        <v>7352430.555555556</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H19" s="31"/>
+      <c r="I19" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="37">
+        <f>VARP('Que1'!$F$3:$F$14)</f>
+        <v>5326388.888888889</v>
+      </c>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1172,70 +1419,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75377E3D-C7E0-46A4-9DDA-0413417384AA}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="H1" s="27" t="s">
+      <c r="F1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>176</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>179</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2">
@@ -1243,25 +1490,25 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>174</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>173</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>178</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="22">
         <f>_xlfn.VAR.S(B3:B9)</f>
         <v>9.8095238095238084</v>
       </c>
@@ -1270,19 +1517,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>181</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>184</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="2">
@@ -1290,25 +1537,25 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>178</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>175</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>181</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="22">
         <f>_xlfn.VAR.S(D3:D9)</f>
         <v>16.285714285714281</v>
       </c>
@@ -1317,19 +1564,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>183</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>172</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2">
@@ -1337,25 +1584,25 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>176</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>176</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>179</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="22">
         <f>_xlfn.VAR.S(F3:F9)</f>
         <v>3.3333333333333335</v>
       </c>
@@ -1364,19 +1611,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>177</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>177</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="2">
@@ -1384,23 +1631,367 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="29">
+        <v>177.85714285714286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1.183790751872005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="29">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="29">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="29">
+        <v>3.1320159337914948</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="36">
+        <v>9.8095238095238102</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H19" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="29">
+        <v>-0.3428409840701363</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="29">
+        <v>0.73094148840364814</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H22" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="29">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="29">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="29">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H28" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H30" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="29">
+        <v>176.57142857142858</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H31" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="29">
+        <v>1.5252968931473299</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="29">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H33" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="29">
+        <v>4.035556254807295</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="36">
+        <v>16.285714285714281</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="29">
+        <v>1.0850107725453793</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="29">
+        <v>0.99118925556669202</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="29">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H40" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="29">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H41" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="29">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H42" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="29">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H48" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="29">
+        <v>0.69006555934235425</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H49" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="29">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H50" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="29">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H51" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="29">
+        <v>1.8257418583505538</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H52" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="36">
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53" s="29">
+        <v>-0.52800000000000225</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H54" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="29">
+        <v>0.46008694830433966</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H55" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H56" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="29">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H57" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="29">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H58" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="29">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H59" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="30">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
